--- a/input_files/stim-input_template.xlsx
+++ b/input_files/stim-input_template.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/burakgur/Documents/GitHub/PyStim/input_files/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0DC6E99-6912-F94A-ADCF-F09F193CEAEA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D466AACC-CD9D-044D-B4DA-393679CFFC0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="960" yWindow="460" windowWidth="13920" windowHeight="22580" xr2:uid="{F9CBDE01-D9CA-9241-8ADA-EA006F96B750}"/>
+    <workbookView xWindow="12340" yWindow="460" windowWidth="11160" windowHeight="22580" xr2:uid="{F9CBDE01-D9CA-9241-8ADA-EA006F96B750}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="stim-input_template" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="40">
   <si>
     <t>stim_type</t>
   </si>
@@ -110,16 +110,49 @@
     <t>param20</t>
   </si>
   <si>
-    <t>use_nidaq</t>
-  </si>
-  <si>
     <t>sin</t>
   </si>
   <si>
-    <t>1.5</t>
+    <t>0.5</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>90</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>0.25</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>0.2625</t>
+  </si>
+  <si>
+    <t>2</t>
   </si>
   <si>
     <t>6</t>
+  </si>
+  <si>
+    <t>0.375</t>
+  </si>
+  <si>
+    <t>0.125</t>
+  </si>
+  <si>
+    <t>0.0625</t>
   </si>
 </sst>
 </file>
@@ -478,10 +511,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1DA6CBC9-B8BD-7A4D-98AB-1F897E3A595E}">
-  <dimension ref="A1:E25"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -489,214 +522,274 @@
     <col min="1" max="1" width="22.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="B1" s="1">
-        <v>0</v>
+        <v>3</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>36</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1">
         <v>1</v>
       </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" s="1">
+        <v>0</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="1">
-        <v>2</v>
-      </c>
-      <c r="D4" s="1">
-        <v>3</v>
-      </c>
-      <c r="E4" s="1">
+      <c r="C4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C5" s="1">
+        <v>4</v>
+      </c>
+      <c r="D5" s="1">
+        <v>4</v>
+      </c>
+      <c r="E5" s="1">
+        <v>4</v>
+      </c>
+      <c r="F5" s="1">
+        <v>4</v>
+      </c>
+      <c r="G5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1">
-        <v>4</v>
-      </c>
-      <c r="C6" s="1">
-        <v>3</v>
-      </c>
-      <c r="D6" s="1">
-        <v>3</v>
-      </c>
-      <c r="E6" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1">
-        <v>2</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-      <c r="D8" s="1">
-        <v>3</v>
-      </c>
-      <c r="E8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1">
-        <v>0</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" s="1">
-        <v>3</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1">
-        <v>90</v>
-      </c>
-      <c r="C11" s="1">
-        <v>90</v>
-      </c>
-      <c r="D11" s="1">
-        <v>90</v>
-      </c>
-      <c r="E11" s="1">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="D11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1"/>
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -705,7 +798,7 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -714,7 +807,7 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -723,7 +816,7 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -732,7 +825,7 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -741,7 +834,7 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B21" s="1"/>
       <c r="C21" s="1"/>
@@ -750,7 +843,7 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B22" s="1"/>
       <c r="C22" s="1"/>
@@ -759,7 +852,7 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B23" s="1"/>
       <c r="C23" s="1"/>
@@ -768,21 +861,12 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="B25" s="1"/>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
